--- a/品种及合约.xlsx
+++ b/品种及合约.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="193">
   <si>
     <t>交易所</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,6 +725,58 @@
   </si>
   <si>
     <t>线型低密度聚乙烯(简称“塑料”）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、3、5、7、10、11、12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海国际能源中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中质含硫原油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000桶/手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元/桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1元/桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-12月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交割月份前一月的最后一个交易日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,22 +1129,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="32.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.25" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="29.875" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30" customWidth="1"/>
   </cols>
@@ -1540,54 +1593,60 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I16" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>73</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>75</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>76</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>77</v>
       </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
         <v>57</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="I16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
       </c>
       <c r="H17" s="1">
         <v>0.04</v>
@@ -1602,21 +1661,21 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>0.04</v>
@@ -1625,27 +1684,27 @@
         <v>78</v>
       </c>
       <c r="J18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K18" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H19" s="1">
         <v>0.04</v>
@@ -1657,15 +1716,15 @@
         <v>79</v>
       </c>
       <c r="K19" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -1674,53 +1733,56 @@
         <v>23</v>
       </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21">
         <v>2</v>
       </c>
-      <c r="H20" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J20" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
+      <c r="H21" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>94</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J21" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -1731,9 +1793,6 @@
       <c r="H22" s="1">
         <v>0.04</v>
       </c>
-      <c r="I22" t="s">
-        <v>97</v>
-      </c>
       <c r="J22" t="s">
         <v>79</v>
       </c>
@@ -1741,12 +1800,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -1761,7 +1820,7 @@
         <v>0.04</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="J23" t="s">
         <v>79</v>
@@ -1770,15 +1829,15 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -1790,7 +1849,7 @@
         <v>0.04</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s">
         <v>79</v>
@@ -1799,12 +1858,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -1819,53 +1878,50 @@
         <v>0.04</v>
       </c>
       <c r="I25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I26" t="s">
         <v>78</v>
       </c>
-      <c r="J25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
         <v>86</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>105</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="I26" t="s">
-        <v>107</v>
-      </c>
-      <c r="J26" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" t="s">
-        <v>109</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -1874,7 +1930,7 @@
         <v>23</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H27" s="1">
         <v>0.04</v>
@@ -1889,79 +1945,79 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
-      <c r="F28" t="s">
-        <v>23</v>
-      </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I28" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="J28" t="s">
         <v>79</v>
       </c>
       <c r="K28" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
         <v>23</v>
       </c>
       <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I29" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30">
         <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="I29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J29" t="s">
-        <v>79</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30">
-        <v>100</v>
-      </c>
-      <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30">
-        <v>0.2</v>
       </c>
       <c r="H30" s="1">
         <v>0.04</v>
@@ -1976,24 +2032,21 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>112</v>
-      </c>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
         <v>23</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1">
         <v>0.04</v>
@@ -2008,21 +2061,21 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F32" t="s">
         <v>23</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="H32" s="1">
         <v>0.04</v>
@@ -2038,32 +2091,29 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>116</v>
-      </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
         <v>23</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="1">
         <v>0.04</v>
       </c>
       <c r="I33" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="J33" t="s">
         <v>79</v>
@@ -2074,25 +2124,25 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
         <v>23</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
         <v>0.04</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="J34" t="s">
         <v>79</v>
@@ -2102,11 +2152,17 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E35">
         <v>10</v>
@@ -2132,10 +2188,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E36">
         <v>10</v>
@@ -2150,7 +2206,7 @@
         <v>0.04</v>
       </c>
       <c r="I36" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s">
         <v>79</v>
@@ -2161,10 +2217,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -2179,7 +2235,7 @@
         <v>0.04</v>
       </c>
       <c r="I37" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s">
         <v>79</v>
@@ -2190,10 +2246,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -2202,13 +2258,13 @@
         <v>23</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1">
         <v>0.04</v>
       </c>
       <c r="I38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J38" t="s">
         <v>79</v>
@@ -2219,10 +2275,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E39">
         <v>10</v>
@@ -2231,13 +2287,13 @@
         <v>23</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="1">
         <v>0.04</v>
       </c>
       <c r="I39" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="J39" t="s">
         <v>79</v>
@@ -2248,25 +2304,25 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" t="s">
-        <v>141</v>
+        <v>23</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
       </c>
       <c r="H40" s="1">
         <v>0.04</v>
       </c>
       <c r="I40" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="J40" t="s">
         <v>79</v>
@@ -2277,25 +2333,25 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
-      </c>
-      <c r="E41" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" t="s">
-        <v>141</v>
+        <v>23</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
       </c>
       <c r="H41" s="1">
         <v>0.04</v>
       </c>
       <c r="I41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J41" t="s">
         <v>79</v>
@@ -2306,51 +2362,48 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="F42" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G42" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H42" s="1">
         <v>0.04</v>
       </c>
       <c r="I42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J42" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="K42" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>67</v>
-      </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
+        <v>143</v>
+      </c>
+      <c r="E43" t="s">
+        <v>139</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43">
-        <v>5</v>
+        <v>140</v>
+      </c>
+      <c r="G43" t="s">
+        <v>141</v>
       </c>
       <c r="H43" s="1">
         <v>0.04</v>
@@ -2367,19 +2420,19 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
+        <v>144</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44">
-        <v>5</v>
+        <v>145</v>
+      </c>
+      <c r="G44" t="s">
+        <v>146</v>
       </c>
       <c r="H44" s="1">
         <v>0.04</v>
@@ -2388,18 +2441,21 @@
         <v>106</v>
       </c>
       <c r="J44" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="K44" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -2408,7 +2464,7 @@
         <v>23</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H45" s="1">
         <v>0.04</v>
@@ -2425,19 +2481,19 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
         <v>23</v>
       </c>
       <c r="G46">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H46" s="1">
         <v>0.04</v>
@@ -2454,19 +2510,19 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E47">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
         <v>23</v>
       </c>
       <c r="G47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H47" s="1">
         <v>0.04</v>
@@ -2483,10 +2539,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="D48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -2511,72 +2567,75 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>155</v>
-      </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="E49">
+        <v>60</v>
       </c>
       <c r="F49" t="s">
-        <v>163</v>
-      </c>
-      <c r="G49" t="s">
-        <v>164</v>
+        <v>23</v>
+      </c>
+      <c r="G49">
+        <v>0.5</v>
       </c>
       <c r="H49" s="1">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I49" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="J49" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="K49" s="1">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
-        <v>167</v>
-      </c>
-      <c r="E50" t="s">
-        <v>168</v>
+        <v>154</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>163</v>
-      </c>
-      <c r="G50" t="s">
-        <v>164</v>
+        <v>23</v>
+      </c>
+      <c r="G50">
+        <v>0.5</v>
       </c>
       <c r="H50" s="1">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I50" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="J50" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="K50" s="1">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s">
+        <v>192</v>
+      </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E51" t="s">
         <v>162</v>
@@ -2602,53 +2661,111 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="E52" t="s">
+        <v>168</v>
       </c>
       <c r="F52" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G52" t="s">
-        <v>172</v>
-      </c>
-      <c r="H52" s="2">
-        <v>1.2E-2</v>
+        <v>164</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.1</v>
       </c>
       <c r="I52" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J52" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K52" s="1">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" t="s">
+        <v>163</v>
+      </c>
+      <c r="G53" t="s">
+        <v>164</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>165</v>
+      </c>
+      <c r="J53" t="s">
+        <v>166</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" t="s">
+        <v>172</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>173</v>
+      </c>
+      <c r="J54" t="s">
+        <v>174</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
         <v>160</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>175</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F55" t="s">
         <v>171</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G55" t="s">
         <v>172</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H55" s="2">
         <v>0.02</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I55" t="s">
         <v>173</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J55" t="s">
         <v>174</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K55" s="1">
         <v>0.02</v>
       </c>
     </row>

--- a/品种及合约.xlsx
+++ b/品种及合约.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="194">
   <si>
     <t>交易所</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -777,6 +777,10 @@
   </si>
   <si>
     <t>金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10吨/手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1132,7 +1136,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2426,7 +2430,7 @@
         <v>144</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="F44" t="s">
         <v>145</v>
